--- a/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
+++ b/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{81791756-B520-E448-841E-0669B3DD7A2B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="9080" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="1760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="9080"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -23,7 +23,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -31,7 +31,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="673">
   <si>
     <t>description</t>
   </si>
@@ -2082,6 +2082,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2276,8 +2291,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2455,8 +2672,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -2820,6 +3343,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2827,7 +4002,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2969,52 +4144,148 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="7" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="10" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="13" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="16" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="22" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="13" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="25" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="31" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="34" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="37" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="40" fontId="31" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="43" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="34" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="49" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="40" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="52" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="61" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="64" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="67" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="70" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="76" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="67" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3491,7 +4762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3805,7 +5076,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>671</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -3841,7 +5112,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>672</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -3888,7 +5159,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -3959,7 +5230,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -4021,7 +5292,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -4080,7 +5351,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -4136,7 +5407,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -4180,7 +5451,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -4221,7 +5492,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -4259,7 +5530,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>532</v>
@@ -4297,7 +5568,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -4332,7 +5603,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -4364,7 +5635,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -4396,7 +5667,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>536</v>
@@ -4428,7 +5699,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -4454,7 +5725,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -4471,13 +5742,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>670</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -4491,13 +5762,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -4511,13 +5782,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -4531,13 +5802,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>669</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -4551,13 +5822,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -4571,13 +5842,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>537</v>
@@ -4591,13 +5862,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -4611,13 +5882,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -4631,13 +5902,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -4651,13 +5922,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -4668,13 +5939,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -4685,10 +5956,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -4699,7 +5973,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -4710,7 +5984,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -4721,7 +5995,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -4732,7 +6006,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -4743,7 +6017,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -4754,7 +6028,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -4765,7 +6039,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -4776,7 +6050,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -4787,7 +6061,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -4797,6 +6071,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -5462,7 +6739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" topLeftCell="B1" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A9" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10589,7 +11866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003FAE3E-EE25-0C42-8195-169BCC8E1EC3}">
   <dimension ref="A1:P325"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScaleNormal="100" zoomScale="100">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16427,7 +17704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D789BBF0-5683-5340-9FC3-0BAD5F611AB9}">
   <dimension ref="A1:X317"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
+++ b/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
@@ -23,13 +23,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -50,7 +50,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="676">
   <si>
     <t>description</t>
   </si>
@@ -2097,6 +2097,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2493,8 +2502,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="86">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2978,8 +3088,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3995,6 +4258,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4002,7 +4591,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4240,52 +4829,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="61" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="61" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="64" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="64" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="67" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="67" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="70" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="70" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="76" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="76" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="67" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="67" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="79" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="79" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="82" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="70" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="88" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="91" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="94" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="97" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="103" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="94" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4760,7 +5397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5226,6 +5863,9 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>673</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -5742,7 +6382,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>670</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -5762,7 +6402,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -5782,7 +6422,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -5802,7 +6442,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>533</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -5822,7 +6462,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>533</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -5842,7 +6482,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -5862,7 +6502,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -5882,7 +6522,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -5902,7 +6542,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -5922,7 +6562,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -5939,7 +6579,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -5956,7 +6596,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -5973,7 +6613,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -5984,7 +6624,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -5995,7 +6635,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -6006,7 +6646,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -6017,7 +6657,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -6028,7 +6668,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -6039,7 +6679,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -6050,7 +6690,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -6061,7 +6701,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -6071,9 +6711,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -6547,186 +7184,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>616</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6987,7 +7634,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>591</v>
@@ -17952,7 +18599,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>591</v>

--- a/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
+++ b/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3791" uniqueCount="676">
   <si>
     <t>description</t>
   </si>
@@ -2115,7 +2115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2603,8 +2603,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="140">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3241,8 +3342,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4584,6 +4838,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4591,7 +5171,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4877,52 +5457,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="88" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="88" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="91" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="91" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="94" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="94" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="97" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="97" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="100" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="100" fontId="66" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="103" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="103" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="94" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="94" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="106" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="106" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="109" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="97" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="112" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="115" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="118" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="121" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="124" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="130" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="121" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
+++ b/examples/screenshots/artifact/script/CaptureScreenshots.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3791" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4356" uniqueCount="676">
   <si>
     <t>description</t>
   </si>
@@ -2115,7 +2115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="108" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2704,8 +2704,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="140">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3495,8 +3596,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -5164,6 +5418,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5171,7 +5751,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="137">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5505,52 +6085,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="112" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="115" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="115" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="118" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="118" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="121" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="121" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="124" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="124" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="127" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="127" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="130" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="130" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="121" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="121" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="133" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="133" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="136" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="136" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="124" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="124" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="139" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="139" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="142" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="145" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="148" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="151" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="154" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="157" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="148" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="160" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="163" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="151" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="166" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
